--- a/ocms/target/test-classes/DownloadedFiles/CEP Event Mapping (3).xlsx
+++ b/ocms/target/test-classes/DownloadedFiles/CEP Event Mapping (3).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t xml:space="preserve">CEP Event</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t xml:space="preserve">intent1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product OCM Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntentHome</t>
   </si>
   <si>
     <t xml:space="preserve">938274</t>
@@ -183,11 +195,11 @@
   <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="9.714285714285714" bestFit="1"/>
-    <col min="2" max="2" customWidth="1" width="12.714285714285714" bestFit="1"/>
+    <col min="2" max="2" customWidth="1" width="19.714285714285715" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="12.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="5.714285714285714" bestFit="1"/>
     <col min="5" max="5" customWidth="1" width="13.714285714285714" bestFit="1"/>
-    <col min="6" max="6" customWidth="1" width="7.714285714285714" bestFit="1"/>
+    <col min="6" max="6" customWidth="1" width="10.714285714285714" bestFit="1"/>
     <col min="7" max="7" customWidth="1" width="22.714285714285715" bestFit="1"/>
     <col min="8" max="8" customWidth="1" width="55.714285714285715" bestFit="1"/>
   </cols>
@@ -304,21 +316,47 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43616.56202546296</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2">
         <v>43609.65553240741</v>
       </c>
     </row>
